--- a/va_facility_data_2025-02-20/Columbus VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Columbus%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Columbus VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Columbus%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rdcf68d85f1b24cdaacdafd6be7ba9337"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4b2c57b838434dfab7b73f10f5a5ab8f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd86094afee084e84a07ea0555edf0fb0"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R68bfd5a563534fd2862f6504110e0dab"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5701c0dec1df48fba0fbffb221b7386b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R395f731b02de43eeb7ecdbc7150ff924"/>
   </x:sheets>
 </x:workbook>
 </file>
